--- a/assets/Libro2.xlsx
+++ b/assets/Libro2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E_Rol\Documents\OdelNorte\excelToSVG\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="98">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,10 +398,319 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0070C0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="270">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="4"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="180">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="4"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="225">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="4"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="135">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="315">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="135">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="4"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="1" right="1">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" top="1" bottom="1">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="1" right="1" top="1" bottom="1">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGrid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor theme="6" tint="-0.24994659260841701"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <bgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <bgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -406,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -468,15 +782,67 @@
     <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -525,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,7 +926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,193 +1135,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:AP70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="99"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="48"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="49"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="50"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="52"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="51"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="54"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="53"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="62"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="63"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="64"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="61"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="61"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="61"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="61"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="61"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="61"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,7 +1402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -980,7 +1414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
